--- a/data/trans_orig/P16A17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Edad-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1341,7 +1341,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2142,7 +2142,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2975,7 +2975,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Edad-trans_orig.xlsx
@@ -774,19 +774,19 @@
         <v>7158</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3189</v>
+        <v>2982</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14800</v>
+        <v>14076</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0103771609898152</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004623725855079551</v>
+        <v>0.004324018821816048</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02145667952058228</v>
+        <v>0.02040714575976885</v>
       </c>
     </row>
     <row r="11">
@@ -803,19 +803,19 @@
         <v>682586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>674944</v>
+        <v>675668</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>686555</v>
+        <v>686762</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9896228390101848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9785433204794176</v>
+        <v>0.9795928542402311</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9953762741449205</v>
+        <v>0.9956759811781839</v>
       </c>
     </row>
     <row r="12">
@@ -865,19 +865,19 @@
         <v>7663</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3709</v>
+        <v>3753</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14231</v>
+        <v>14238</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01486107610552085</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007193413125313923</v>
+        <v>0.007278115136304358</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02759772748186405</v>
+        <v>0.02761266025085272</v>
       </c>
     </row>
     <row r="14">
@@ -894,19 +894,19 @@
         <v>507979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>501411</v>
+        <v>501404</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>511933</v>
+        <v>511889</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9851389238944791</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9724022725181357</v>
+        <v>0.9723873397491467</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.992806586874686</v>
+        <v>0.9927218848636956</v>
       </c>
     </row>
     <row r="15">
@@ -956,19 +956,19 @@
         <v>7856</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3791</v>
+        <v>3086</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15457</v>
+        <v>14888</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01949343584595619</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009407918465160715</v>
+        <v>0.007658587117631677</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03835510011751303</v>
+        <v>0.03694431623515928</v>
       </c>
     </row>
     <row r="17">
@@ -985,19 +985,19 @@
         <v>395136</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>387535</v>
+        <v>388104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>399201</v>
+        <v>399906</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9805065641540438</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9616448998824872</v>
+        <v>0.9630556837648409</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9905920815348394</v>
+        <v>0.9923414128823683</v>
       </c>
     </row>
     <row r="18">
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7099</v>
+        <v>7048</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004229220199201005</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02125922586282805</v>
+        <v>0.02110770780179883</v>
       </c>
     </row>
     <row r="23">
@@ -1151,7 +1151,7 @@
         <v>332496</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>326809</v>
+        <v>326860</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>333908</v>
@@ -1160,7 +1160,7 @@
         <v>0.995770779800799</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.978740774137172</v>
+        <v>0.9788922921982012</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -1213,19 +1213,19 @@
         <v>24088</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16076</v>
+        <v>15744</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35122</v>
+        <v>34576</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00713237311627108</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004759827443151944</v>
+        <v>0.004661606530646006</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01039927954728383</v>
+        <v>0.01023752702259107</v>
       </c>
     </row>
     <row r="26">
@@ -1242,19 +1242,19 @@
         <v>3353251</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3342217</v>
+        <v>3342763</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3361263</v>
+        <v>3361595</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9928676268837289</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9896007204527161</v>
+        <v>0.9897624729774087</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9952401725568478</v>
+        <v>0.9953383934693538</v>
       </c>
     </row>
     <row r="27">
@@ -1575,19 +1575,19 @@
         <v>2852</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7723</v>
+        <v>7739</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004040614216956871</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001271042164125221</v>
+        <v>0.001278860723571832</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01093992381815374</v>
+        <v>0.0109628756873055</v>
       </c>
     </row>
     <row r="11">
@@ -1604,19 +1604,19 @@
         <v>703083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>698212</v>
+        <v>698196</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>705038</v>
+        <v>705032</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9959593857830431</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9890600761818463</v>
+        <v>0.9890371243126944</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9987289578358748</v>
+        <v>0.9987211392764282</v>
       </c>
     </row>
     <row r="12">
@@ -1666,19 +1666,19 @@
         <v>16820</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9611</v>
+        <v>9688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28167</v>
+        <v>27637</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02743820544128116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0156776765631453</v>
+        <v>0.01580379992697796</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04594903540111479</v>
+        <v>0.04508509290806149</v>
       </c>
     </row>
     <row r="14">
@@ -1695,19 +1695,19 @@
         <v>596187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>584840</v>
+        <v>585370</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>603396</v>
+        <v>603319</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9725617945587188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9540509645988855</v>
+        <v>0.9549149070919385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9843223234368557</v>
+        <v>0.9841962000730221</v>
       </c>
     </row>
     <row r="15">
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5522</v>
+        <v>4849</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002139833725434391</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01235955581411056</v>
+        <v>0.01085263817294521</v>
       </c>
     </row>
     <row r="17">
@@ -1786,7 +1786,7 @@
         <v>445851</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>441285</v>
+        <v>441958</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>446807</v>
@@ -1795,7 +1795,7 @@
         <v>0.9978601662745656</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9876404441858893</v>
+        <v>0.9891473618270548</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5247</v>
+        <v>6455</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003033813159534031</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01499005274060808</v>
+        <v>0.01844081162203625</v>
       </c>
     </row>
     <row r="20">
@@ -1877,7 +1877,7 @@
         <v>348990</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>344805</v>
+        <v>343597</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>350052</v>
@@ -1886,7 +1886,7 @@
         <v>0.996966186840466</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9850099472593918</v>
+        <v>0.9815591883779637</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -2014,19 +2014,19 @@
         <v>21690</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13520</v>
+        <v>13543</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33865</v>
+        <v>34745</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006134251475637478</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003823710410201663</v>
+        <v>0.003830045090362292</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.009577382402697163</v>
+        <v>0.009826329673771079</v>
       </c>
     </row>
     <row r="26">
@@ -2043,19 +2043,19 @@
         <v>3514246</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3502071</v>
+        <v>3501191</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3522416</v>
+        <v>3522393</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9938657485243625</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9904226175973027</v>
+        <v>0.9901736703262288</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9961762895897983</v>
+        <v>0.9961699549096376</v>
       </c>
     </row>
     <row r="27">
@@ -2301,19 +2301,19 @@
         <v>2721</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7999</v>
+        <v>8246</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004827544788753998</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001536448996864659</v>
+        <v>0.001538406688135345</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01419334308174818</v>
+        <v>0.01463198037383344</v>
       </c>
     </row>
     <row r="8">
@@ -2330,19 +2330,19 @@
         <v>560823</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>555545</v>
+        <v>555298</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>562678</v>
+        <v>562677</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.995172455211246</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9858066569182521</v>
+        <v>0.985368019626168</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9984635510031354</v>
+        <v>0.9984615933118647</v>
       </c>
     </row>
     <row r="9">
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6383</v>
+        <v>5329</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001602842518900561</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009650344008580808</v>
+        <v>0.008057357899145969</v>
       </c>
     </row>
     <row r="11">
@@ -2421,7 +2421,7 @@
         <v>660326</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>655003</v>
+        <v>656057</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>661386</v>
@@ -2430,7 +2430,7 @@
         <v>0.9983971574810995</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9903496559914191</v>
+        <v>0.991942642100854</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2483,19 +2483,19 @@
         <v>5092</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1872</v>
+        <v>1948</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11453</v>
+        <v>11027</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007844414348889033</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002884279364209603</v>
+        <v>0.003000735889120026</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01764531405120164</v>
+        <v>0.01698893531553951</v>
       </c>
     </row>
     <row r="14">
@@ -2512,19 +2512,19 @@
         <v>643985</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>637624</v>
+        <v>638050</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>647205</v>
+        <v>647129</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9921555856511109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9823546859487982</v>
+        <v>0.9830110646844604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9971157206357903</v>
+        <v>0.9969992641108799</v>
       </c>
     </row>
     <row r="15">
@@ -2574,19 +2574,19 @@
         <v>4537</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10387</v>
+        <v>11444</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00913132143425972</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0023279469963386</v>
+        <v>0.002341685434477373</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0209065916792882</v>
+        <v>0.02303338067479917</v>
       </c>
     </row>
     <row r="17">
@@ -2603,19 +2603,19 @@
         <v>492312</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>486462</v>
+        <v>485405</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>495692</v>
+        <v>495686</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9908686785657402</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9790934083207112</v>
+        <v>0.976966619325201</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9976720530036614</v>
+        <v>0.9976583145655226</v>
       </c>
     </row>
     <row r="18">
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7175</v>
+        <v>7173</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00538493318127924</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01899325258487826</v>
+        <v>0.01898937647975364</v>
       </c>
     </row>
     <row r="20">
@@ -2694,7 +2694,7 @@
         <v>375728</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>370587</v>
+        <v>370589</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>377762</v>
@@ -2703,7 +2703,7 @@
         <v>0.9946150668187208</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9810067474151215</v>
+        <v>0.9810106235202463</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10516</v>
+        <v>9250</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006608993570736096</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02627895971965961</v>
+        <v>0.02311471312713287</v>
       </c>
     </row>
     <row r="23">
@@ -2785,7 +2785,7 @@
         <v>397524</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>389653</v>
+        <v>390919</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>400169</v>
@@ -2794,7 +2794,7 @@
         <v>0.9933910064292639</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9737210402803405</v>
+        <v>0.9768852868728671</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2847,19 +2847,19 @@
         <v>18088</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11189</v>
+        <v>11466</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28685</v>
+        <v>28688</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005103081089591228</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003156631739726414</v>
+        <v>0.003234752368892207</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.008092683746887307</v>
+        <v>0.008093564605366345</v>
       </c>
     </row>
     <row r="26">
@@ -2876,19 +2876,19 @@
         <v>3526454</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3515857</v>
+        <v>3515854</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3533353</v>
+        <v>3533076</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9948969189104088</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.991907316253112</v>
+        <v>0.9919064353946335</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9968433682602735</v>
+        <v>0.9967652476311077</v>
       </c>
     </row>
     <row r="27">
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5102</v>
+        <v>4585</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001835038858313352</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01021314273134414</v>
+        <v>0.009177381204433141</v>
       </c>
     </row>
     <row r="8">
@@ -3163,7 +3163,7 @@
         <v>498652</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494467</v>
+        <v>494984</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>499569</v>
@@ -3172,7 +3172,7 @@
         <v>0.9981649611416867</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9897868572686562</v>
+        <v>0.9908226187955669</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5562</v>
+        <v>5462</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00250518916799847</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008951031218866598</v>
+        <v>0.008790755460187627</v>
       </c>
     </row>
     <row r="11">
@@ -3254,16 +3254,16 @@
         <v>619821</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>615816</v>
+        <v>615916</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>621378</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9974948108320015</v>
+        <v>0.9974948108320016</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9910489687811334</v>
+        <v>0.9912092445398123</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3316,19 +3316,19 @@
         <v>9212</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4852</v>
+        <v>5253</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15036</v>
+        <v>14988</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01253456800228563</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006602568572513711</v>
+        <v>0.007148208112885796</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02045975627286301</v>
+        <v>0.02039497787176521</v>
       </c>
     </row>
     <row r="14">
@@ -3345,19 +3345,19 @@
         <v>725678</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>719854</v>
+        <v>719902</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>730038</v>
+        <v>729637</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9874654319977143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9795402437271363</v>
+        <v>0.9796050221282346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9933974314274859</v>
+        <v>0.9928517918871145</v>
       </c>
     </row>
     <row r="15">
@@ -3407,19 +3407,19 @@
         <v>3730</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1315</v>
+        <v>1367</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7524</v>
+        <v>7645</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006140433469671241</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00216515589904952</v>
+        <v>0.002250771849302469</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01238631101717778</v>
+        <v>0.01258608017608863</v>
       </c>
     </row>
     <row r="17">
@@ -3436,19 +3436,19 @@
         <v>603718</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>599924</v>
+        <v>599803</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>606133</v>
+        <v>606081</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9938595665303287</v>
+        <v>0.9938595665303285</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9876136889828214</v>
+        <v>0.9874139198239112</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9978348441009504</v>
+        <v>0.9977492281506974</v>
       </c>
     </row>
     <row r="18">
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4005</v>
+        <v>3832</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002399222522528617</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.009127791370960663</v>
+        <v>0.008733536861051917</v>
       </c>
     </row>
     <row r="20">
@@ -3527,16 +3527,16 @@
         <v>437734</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>434782</v>
+        <v>434955</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>438787</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9976007774774713</v>
+        <v>0.9976007774774714</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9908722086290409</v>
+        <v>0.991266463138948</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5376</v>
+        <v>6448</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003816949491076953</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01160074831810085</v>
+        <v>0.01391323210777286</v>
       </c>
     </row>
     <row r="23">
@@ -3618,16 +3618,16 @@
         <v>461641</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>458034</v>
+        <v>456962</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>463410</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.996183050508923</v>
+        <v>0.9961830505089231</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9883992516818993</v>
+        <v>0.9860867678922273</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -3680,19 +3680,19 @@
         <v>18236</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11918</v>
+        <v>12378</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25928</v>
+        <v>26706</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.004891766763541077</v>
+        <v>0.004891766763541078</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003196981177204124</v>
+        <v>0.003320410546481231</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.006954841523604654</v>
+        <v>0.007163629539770858</v>
       </c>
     </row>
     <row r="26">
@@ -3709,19 +3709,19 @@
         <v>3709758</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3702066</v>
+        <v>3701288</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3716076</v>
+        <v>3715616</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.995108233236459</v>
+        <v>0.9951082332364589</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9930451584763953</v>
+        <v>0.9928363704602292</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9968030188227959</v>
+        <v>0.9966795894535189</v>
       </c>
     </row>
     <row r="27">
